--- a/外部設計関連/02_画面遷移図_D4第一版.xlsx
+++ b/外部設計関連/02_画面遷移図_D4第一版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\作成ドキュメント\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1E2CB8-259B-495A-B07A-9D5D4C4B21AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F0A82E-E627-412C-AEB2-EC36F51E1917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,31 +128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・解決済みの質問については閲覧数が多い順で表示</t>
-    <rPh sb="1" eb="3">
-      <t>カイケツ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>エツランスウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・質問の詳細に飛ぶリンク</t>
     <rPh sb="1" eb="3">
       <t>シツモン</t>
@@ -166,78 +141,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・未解決の質問は投稿日時が古い順で表示</t>
-    <rPh sb="1" eb="4">
-      <t>ミカイケツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="8" eb="12">
-      <t>トウコウニチジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>フル</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・選択した質問に対する回答が一覧表示</t>
-    <rPh sb="1" eb="3">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・回答の表示順は回答日時が古い順で表示</t>
-    <rPh sb="1" eb="3">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ニチジ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>フル</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・質問に対する回答を入力する機能</t>
     <rPh sb="1" eb="3">
       <t>シツモン</t>
@@ -447,6 +350,34 @@
     <rPh sb="0" eb="5">
       <t>ミヨタリナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ロゴをクリックしたらトップページに遷移</t>
+    <rPh sb="18" eb="20">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ナビゲーションメニューにより、全ページからトップページ、質問投稿ページ、</t>
+    <rPh sb="16" eb="17">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>トウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイページ、ログアウトにリンクで遷移することができる。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -886,13 +817,6 @@
             <a:t>質問詳細＋回答（返信）ページ</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>（回答一覧機能）</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2361,9 +2285,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N45"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2376,26 +2300,26 @@
     <col min="12" max="12" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -2404,47 +2328,65 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="6" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="21" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="21" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:4" ht="21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="21" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="D10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -2452,91 +2394,79 @@
         <v>13</v>
       </c>
       <c r="N18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
-      <c r="N19" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
       <c r="E20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="N20" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
         <v>12</v>
       </c>
-      <c r="H21" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
       <c r="H27" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
       <c r="H28" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
       <c r="H29" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
       <c r="H30" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H36" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H37" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N37" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H38" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N38" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="8:14" x14ac:dyDescent="0.2">
       <c r="H39" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="8:14" x14ac:dyDescent="0.2">
       <c r="N45" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/外部設計関連/02_画面遷移図_D4第一版.xlsx
+++ b/外部設計関連/02_画面遷移図_D4第一版.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F0A82E-E627-412C-AEB2-EC36F51E1917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BBDB49-864B-44CE-93E6-4A775AEAAB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面遷移図" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -353,10 +353,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>タイトル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・ロゴをクリックしたらトップページに遷移</t>
     <rPh sb="18" eb="20">
       <t>センイ</t>
@@ -378,6 +374,91 @@
   </si>
   <si>
     <t>マイページ、ログアウトにリンクで遷移することができる。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ブラウザの戻るボタンで戻る</t>
+    <rPh sb="6" eb="7">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索ボタンをクリック</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>質問詳細ページに質問結果ページへのリンクを張った場合、初めに検索した内容を保持した検索結果一覧が見られるのか</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→リンクをクリック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←更新・キャンセルボタンをクリック</t>
+    <rPh sb="1" eb="3">
+      <t>コウシン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -577,8 +658,8 @@
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1194955</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
@@ -595,8 +676,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3482340" y="1714500"/>
-          <a:ext cx="1744980" cy="579120"/>
+          <a:off x="4420639" y="2617816"/>
+          <a:ext cx="1848543" cy="601288"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1008,13 +1089,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>580159</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>164522</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
@@ -1031,8 +1112,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10576560" y="4747260"/>
-          <a:ext cx="2293620" cy="556260"/>
+          <a:off x="12962659" y="5750329"/>
+          <a:ext cx="2320636" cy="578427"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1070,9 +1151,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>941070</xdr:colOff>
+      <xdr:colOff>569595</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>58189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -1096,8 +1177,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3128010" y="2004060"/>
-          <a:ext cx="613410" cy="0"/>
+          <a:off x="2968163" y="2915689"/>
+          <a:ext cx="1452476" cy="2771"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1125,10 +1206,612 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>491490</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4595452C-3A9E-495D-B4A4-4F60113EE7D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8378190" y="2004060"/>
+          <a:ext cx="1344930" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="コネクタ: カギ線 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE2EE5E-7DF9-4C64-8013-E3C0D563D121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5438775" y="3126105"/>
+          <a:ext cx="3021330" cy="777240"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>769620</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>13335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0285857-F036-4F37-ADC4-E98FABC4DAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5882640" y="3465195"/>
+          <a:ext cx="769620" cy="1905"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>580159</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="直線コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27035684-B565-4A71-BCE9-DD35C6F82ECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10200755" y="6036772"/>
+          <a:ext cx="2761904" cy="2771"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>862964</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>248920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>487679</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>154306</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="コネクタ: カギ線 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D33091E-A4FD-4EB5-8CDC-C00A6FB94D11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1576069" y="1562735"/>
+          <a:ext cx="1276986" cy="859155"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>249785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>270684</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="コネクタ: カギ線 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801E32F5-9BD9-464B-831C-67850B0AE091}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4466359" y="1384126"/>
+          <a:ext cx="878552" cy="1233690"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>249785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>262485</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB5D92D-15F3-4454-8480-FB6069D0C669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2886248" y="1384126"/>
+          <a:ext cx="1580111" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -14467"/>
+            <a:gd name="adj2" fmla="val -4742724"/>
+            <a:gd name="adj3" fmla="val 114467"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>906780</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>569595</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>70889</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="コネクタ: カギ線 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401C88A9-6350-4D6F-96D7-B2F50BD057EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="2" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="906780" y="2915689"/>
+          <a:ext cx="2061383" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector5">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -11090"/>
+            <a:gd name="adj2" fmla="val -5229543"/>
+            <a:gd name="adj3" fmla="val 111090"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>796635</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>164522</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>121226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B36E3E00-147C-4449-AC06-D65548D16A11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="796635" y="2190750"/>
+          <a:ext cx="2337955" cy="268431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録された</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>PW</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が存在しない場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1290203</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>43296</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EA873E3-2C54-44F6-92E3-537EDBD78803}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2320635" y="710045"/>
+          <a:ext cx="2796888" cy="268432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>がほかのユーザーと被ってしまった場合</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1194955</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
@@ -1138,10 +1821,10 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B6A7338-3CA4-4AA2-9DBF-90A65127C9D2}"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EF6AF3-EE0B-4A4D-8F16-62E8B76F664E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1151,15 +1834,15 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5227320" y="2004060"/>
-          <a:ext cx="853440" cy="0"/>
+        <a:xfrm flipV="1">
+          <a:off x="6269182" y="2915689"/>
+          <a:ext cx="1746019" cy="2771"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
-          <a:tailEnd type="none"/>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1184,20 +1867,20 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>491490</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>58189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>58189</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4595452C-3A9E-495D-B4A4-4F60113EE7D3}"/>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3561FE3-C21A-4881-95FF-8DF14F0D5D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1208,12 +1891,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8378190" y="2004060"/>
-          <a:ext cx="1344930" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
+          <a:off x="10484081" y="2915689"/>
+          <a:ext cx="1854084" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1235,22 +1921,136 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:colOff>779318</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25978</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="コネクタ: カギ線 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABE2EE5E-7DF9-4C64-8013-E3C0D563D121}"/>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5990A760-D1BD-4581-8BCC-B2B69ECD066D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7074477" y="4426701"/>
+          <a:ext cx="933104" cy="15413"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>270684</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10565</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="コネクタ: カギ線 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{656AE73C-6C1C-4E2D-805A-E9DCB4231B65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5344911" y="3219104"/>
+          <a:ext cx="5183504" cy="1207597"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4410"/>
+            <a:gd name="adj2" fmla="val 60361"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61998</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="コネクタ: カギ線 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C401F3-5087-4DA0-9CFD-118F96BDB4E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,64 +2060,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5438775" y="3126105"/>
-          <a:ext cx="3021330" cy="777240"/>
+          <a:off x="5981181" y="4002751"/>
+          <a:ext cx="3109999" cy="958042"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>13335</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="直線コネクタ 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0285857-F036-4F37-ADC4-E98FABC4DAFE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5882640" y="3465195"/>
-          <a:ext cx="769620" cy="1905"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1341,20 +2092,20 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>156210</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:rowOff>61999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:colOff>580159</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>64770</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線コネクタ 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27035684-B565-4A71-BCE9-DD35C6F82ECA}"/>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D781E3-B956-4E28-B70E-C9B6F06DB270}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1365,12 +2116,15 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8622030" y="5025390"/>
-          <a:ext cx="1954530" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
+          <a:off x="10200755" y="6036772"/>
+          <a:ext cx="2761904" cy="2771"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1391,87 +2145,90 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>580159</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69804724-F4DD-4EEB-89C9-843BE6CF5216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10200755" y="6036772"/>
+          <a:ext cx="2761904" cy="2771"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>173185</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>64771</xdr:rowOff>
+      <xdr:rowOff>69274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>145645</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="コネクタ: カギ線 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF549D73-3E7F-4DF8-9792-145CC6C2B8D4}"/>
+        <xdr:cNvPr id="50" name="コネクタ: カギ線 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D486B4-E323-41E4-B03D-CF39FA0938C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="8" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="9951720" y="5025391"/>
-          <a:ext cx="647700" cy="1419224"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>862964</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>248920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>487679</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>154306</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="コネクタ: カギ線 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D33091E-A4FD-4EB5-8CDC-C00A6FB94D11}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="0"/>
-          <a:endCxn id="9" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="1576069" y="1562735"/>
-          <a:ext cx="1276986" cy="859155"/>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11415196" y="6500468"/>
+          <a:ext cx="1461825" cy="548983"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1499,58 +2256,219 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>248919</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>293370</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="コネクタ: カギ線 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801E32F5-9BD9-464B-831C-67850B0AE091}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="3" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1662545</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82168945-2D2B-4C7B-AA80-53955D446D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3947160" y="1353819"/>
-          <a:ext cx="826770" cy="1229361"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
+          <a:off x="7957704" y="3602182"/>
+          <a:ext cx="1956955" cy="216478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投稿ボタンをクリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>303069</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1437410</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>164523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66E2FE8-7ABE-457E-8805-B7360475FD3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6598228" y="4286250"/>
+          <a:ext cx="1134341" cy="467591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>質問投稿ページをクリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502229</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1463387</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80CA377-C61D-44EF-B5A5-A852D8F80C3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6797388" y="5888182"/>
+          <a:ext cx="961158" cy="467591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイページを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2287,20 +3205,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +3234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2328,65 +3248,68 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="21" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
     </row>
-    <row r="8" spans="1:19" ht="21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="21" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
     </row>
-    <row r="9" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="D10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="13.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
       <c r="S15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S16" t="s">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="L17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="L17" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -2397,53 +3320,76 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="E20" s="5" t="s">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="N22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="E23" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
+    <row r="24" spans="2:19" x14ac:dyDescent="0.15">
+      <c r="E24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:19" x14ac:dyDescent="0.15">
       <c r="H27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.15">
       <c r="H28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:19" x14ac:dyDescent="0.15">
       <c r="H29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.15">
       <c r="H30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:14" x14ac:dyDescent="0.15">
+      <c r="L33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="8:14" x14ac:dyDescent="0.15">
+      <c r="L35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H37" t="s">
         <v>20</v>
       </c>
@@ -2451,7 +3397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H38" t="s">
         <v>21</v>
       </c>
@@ -2459,12 +3405,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="8:14" x14ac:dyDescent="0.15">
       <c r="H39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="8:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="8:14" x14ac:dyDescent="0.15">
       <c r="N45" t="s">
         <v>27</v>
       </c>
@@ -2485,7 +3431,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2499,7 +3445,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/外部設計関連/02_画面遷移図_D4第一版.xlsx
+++ b/外部設計関連/02_画面遷移図_D4第一版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BBDB49-864B-44CE-93E6-4A775AEAAB23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA9D94D-5196-4CAC-802C-15DEAC7D452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -458,6 +458,16 @@
     <t>←更新・キャンセルボタンをクリック</t>
     <rPh sb="1" eb="3">
       <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤原夢乃</t>
+    <rPh sb="0" eb="2">
+      <t>フジワラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユメノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3206,7 +3216,7 @@
   <dimension ref="A1:S45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3252,13 +3262,17 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="6">
+        <v>44356</v>
+      </c>
     </row>
     <row r="6" spans="1:19" ht="21" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">

--- a/外部設計関連/02_画面遷移図_D4第一版.xlsx
+++ b/外部設計関連/02_画面遷移図_D4第一版.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA9D94D-5196-4CAC-802C-15DEAC7D452B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68408CED-93A4-4057-9B38-2FB6D4995EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -394,59 +394,6 @@
     <t>検索ボタンをクリック</t>
     <rPh sb="0" eb="2">
       <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>質問詳細ページに質問結果ページへのリンクを張った場合、初めに検索した内容を保持した検索結果一覧が見られるのか</t>
-    <rPh sb="0" eb="2">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ハ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ハジ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ホジ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3215,8 +3162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3263,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.15">
@@ -3345,17 +3292,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.15">
-      <c r="N21" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
         <v>25</v>
-      </c>
-      <c r="N22" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.15">
@@ -3390,12 +3329,12 @@
     </row>
     <row r="33" spans="8:14" x14ac:dyDescent="0.15">
       <c r="L33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="8:14" x14ac:dyDescent="0.15">
       <c r="L35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="8:14" x14ac:dyDescent="0.15">

--- a/外部設計関連/02_画面遷移図_D4第一版.xlsx
+++ b/外部設計関連/02_画面遷移図_D4第一版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\backup\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68408CED-93A4-4057-9B38-2FB6D4995EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1FF4DF7-7447-4CFD-BC06-2E1876E9C68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1485,42 +1485,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>249785</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>262485</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1194955</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="コネクタ: カギ線 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CB5D92D-15F3-4454-8480-FB6069D0C669}"/>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EF6AF3-EE0B-4A4D-8F16-62E8B76F664E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="9" idx="1"/>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2886248" y="1384126"/>
-          <a:ext cx="1580111" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -14467"/>
-            <a:gd name="adj2" fmla="val -4742724"/>
-            <a:gd name="adj3" fmla="val 114467"/>
-          </a:avLst>
+        <a:xfrm flipV="1">
+          <a:off x="6269182" y="2915689"/>
+          <a:ext cx="1746019" cy="2771"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -1545,42 +1541,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>906780</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>491490</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>58189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>569595</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>70889</xdr:rowOff>
+      <xdr:rowOff>58189</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="コネクタ: カギ線 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{401C88A9-6350-4D6F-96D7-B2F50BD057EC}"/>
+        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3561FE3-C21A-4881-95FF-8DF14F0D5D9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="3"/>
-          <a:endCxn id="2" idx="1"/>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="906780" y="2915689"/>
-          <a:ext cx="2061383" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector5">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -11090"/>
-            <a:gd name="adj2" fmla="val -5229543"/>
-            <a:gd name="adj3" fmla="val 111090"/>
-          </a:avLst>
+        <a:xfrm>
+          <a:off x="10484081" y="2915689"/>
+          <a:ext cx="1854084" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -1605,16 +1597,624 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>796635</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>25977</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>779318</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25978</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5990A760-D1BD-4581-8BCC-B2B69ECD066D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7074477" y="4426701"/>
+          <a:ext cx="933104" cy="15413"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>270684</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>483870</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10565</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="コネクタ: カギ線 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{656AE73C-6C1C-4E2D-805A-E9DCB4231B65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5344911" y="3219104"/>
+          <a:ext cx="5183504" cy="1207597"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -4410"/>
+            <a:gd name="adj2" fmla="val 60361"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>762001</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22861</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61998</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="コネクタ: カギ線 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C401F3-5087-4DA0-9CFD-118F96BDB4E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5981181" y="4002751"/>
+          <a:ext cx="3109999" cy="958042"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>580159</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D781E3-B956-4E28-B70E-C9B6F06DB270}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10200755" y="6036772"/>
+          <a:ext cx="2761904" cy="2771"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>61999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>580159</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69804724-F4DD-4EEB-89C9-843BE6CF5216}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="1"/>
+          <a:endCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10200755" y="6036772"/>
+          <a:ext cx="2761904" cy="2771"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173185</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>69274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145645</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="コネクタ: カギ線 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D486B4-E323-41E4-B03D-CF39FA0938C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11415196" y="6500468"/>
+          <a:ext cx="1461825" cy="548983"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1662545</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82168945-2D2B-4C7B-AA80-53955D446D42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7957704" y="3602182"/>
+          <a:ext cx="1956955" cy="216478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>投稿ボタンをクリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>303069</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1437410</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>164523</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66E2FE8-7ABE-457E-8805-B7360475FD3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6598228" y="4286250"/>
+          <a:ext cx="1134341" cy="467591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>質問投稿ページをクリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502229</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1463387</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80CA377-C61D-44EF-B5A5-A852D8F80C3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6797388" y="5888182"/>
+          <a:ext cx="961158" cy="467591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>マイページを</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>クリック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>201088</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52918</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>164522</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>121226</xdr:rowOff>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158751</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="コネクタ: 曲線 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0876B037-5383-4F5C-BE23-7332C0D1A952}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2571753" y="2709337"/>
+          <a:ext cx="444499" cy="380996"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 297620"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>627302</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142394</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1021772</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68310</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1629,8 +2229,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="796635" y="2190750"/>
-          <a:ext cx="2337955" cy="268431"/>
+          <a:off x="1653885" y="3783061"/>
+          <a:ext cx="2341804" cy="264582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1691,16 +2291,71 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1290203</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>17318</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>43296</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1227667</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>84668</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127002</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="コネクタ: 曲線 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35F3962-D90F-4B3F-871F-A2A82804867F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="4201584" y="1111250"/>
+          <a:ext cx="275167" cy="127002"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -649999"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>432953</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>112568</xdr:rowOff>
+      <xdr:rowOff>70234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1334463</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>70235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1715,8 +2370,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2320635" y="710045"/>
-          <a:ext cx="2796888" cy="268432"/>
+          <a:off x="4825036" y="916901"/>
+          <a:ext cx="2806510" cy="264584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1757,671 +2412,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>がほかのユーザーと被ってしまった場合</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1194955</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>58189</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EF6AF3-EE0B-4A4D-8F16-62E8B76F664E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="5" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6269182" y="2915689"/>
-          <a:ext cx="1746019" cy="2771"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>491490</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>58189</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>58189</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線矢印コネクタ 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3561FE3-C21A-4881-95FF-8DF14F0D5D9F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10484081" y="2915689"/>
-          <a:ext cx="1854084" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>779318</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25978</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5990A760-D1BD-4581-8BCC-B2B69ECD066D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="7" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7074477" y="4426701"/>
-          <a:ext cx="933104" cy="15413"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>270684</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>483870</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10565</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="コネクタ: カギ線 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{656AE73C-6C1C-4E2D-805A-E9DCB4231B65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="7" idx="3"/>
-          <a:endCxn id="3" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5344911" y="3219104"/>
-          <a:ext cx="5183504" cy="1207597"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector4">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -4410"/>
-            <a:gd name="adj2" fmla="val 60361"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>762001</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>22861</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>61998</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="41" name="コネクタ: カギ線 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99C401F3-5087-4DA0-9CFD-118F96BDB4E0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5981181" y="4002751"/>
-          <a:ext cx="3109999" cy="958042"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>156210</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>61999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>580159</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D781E3-B956-4E28-B70E-C9B6F06DB270}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
-          <a:endCxn id="11" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10200755" y="6036772"/>
-          <a:ext cx="2761904" cy="2771"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>156210</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>61999</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>580159</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69804724-F4DD-4EEB-89C9-843BE6CF5216}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="1"/>
-          <a:endCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="10200755" y="6036772"/>
-          <a:ext cx="2761904" cy="2771"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>173185</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>69274</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>145645</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="コネクタ: カギ線 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24D486B4-E323-41E4-B03D-CF39FA0938C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="8" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11415196" y="6500468"/>
-          <a:ext cx="1461825" cy="548983"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1662545</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>554182</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="テキスト ボックス 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82168945-2D2B-4C7B-AA80-53955D446D42}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7957704" y="3602182"/>
-          <a:ext cx="1956955" cy="216478"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>投稿ボタンをクリック</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>303069</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>43295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1437410</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>164523</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="テキスト ボックス 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C66E2FE8-7ABE-457E-8805-B7360475FD3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6598228" y="4286250"/>
-          <a:ext cx="1134341" cy="467591"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>質問投稿ページをクリック</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>502229</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1463387</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="テキスト ボックス 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D80CA377-C61D-44EF-B5A5-A852D8F80C3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6797388" y="5888182"/>
-          <a:ext cx="961158" cy="467591"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>マイページを</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>クリック</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3162,8 +3152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
